--- a/src/main/assets/resources/Backlog_Product.xlsx
+++ b/src/main/assets/resources/Backlog_Product.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CESI\Projet CARTES POKEMON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CESI\Projet CARTES POKEMON\Projet\ProjectWebPokemon\src\main\assets\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D96CEF8-39ED-41C0-9FB2-DA18475215DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7472D01E-D9BC-4D2D-A9C2-FA0904685E2C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{67A70C7E-FCC5-4E5B-AAC5-E6D0ED5F95FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="43">
   <si>
     <t>Story ID</t>
   </si>
@@ -188,12 +191,42 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -235,12 +268,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,6 +353,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFCD8E8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -587,16 +669,17 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,495 +691,495 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
+      <c r="C28" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="20">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="20">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="20">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>26</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>28</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>30</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>35</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+      <c r="A44" s="3"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="3"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+      <c r="A48" s="3"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+      <c r="A49" s="3"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
+      <c r="A50" s="3"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="3"/>
     </row>
   </sheetData>
